--- a/OfertaPDFDeActivacion&PlantillaCM.xlsx
+++ b/OfertaPDFDeActivacion&PlantillaCM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>DCDIS</t>
   </si>
@@ -249,64 +249,22 @@
     <t>DVCAR</t>
   </si>
   <si>
-    <t>4.29</t>
+    <t>MTCOU</t>
   </si>
   <si>
     <t>2.19</t>
   </si>
   <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
     <t>MPRCV</t>
   </si>
   <si>
     <t>0.83</t>
   </si>
   <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>8.40</t>
-  </si>
-  <si>
-    <t>13.65</t>
-  </si>
-  <si>
-    <t>5.34</t>
-  </si>
-  <si>
-    <t>7.09</t>
-  </si>
-  <si>
-    <t>8.84</t>
-  </si>
-  <si>
-    <t>10.59</t>
-  </si>
-  <si>
-    <t>15.84</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>25.09</t>
-  </si>
-  <si>
-    <t>23.00</t>
+    <t>MTCSC</t>
   </si>
   <si>
     <t>1.50</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
   </si>
   <si>
     <t>MPRSC</t>
@@ -453,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,62 +419,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>19200.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>19200.0</v>
+        <v>95</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>114</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +502,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
@@ -569,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -585,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -617,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -633,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -641,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -657,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -665,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +631,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -697,153 +655,63 @@
         <v>24</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1272,43 +1140,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>3</v>

--- a/OfertaPDFDeActivacion&PlantillaCM.xlsx
+++ b/OfertaPDFDeActivacion&PlantillaCM.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Descuentos" r:id="rId3" sheetId="1"/>
     <sheet name="Posventa" r:id="rId4" sheetId="2"/>
-    <sheet name="PlantillaCM-Indice" r:id="rId5" sheetId="3"/>
+    <sheet name="Indice" r:id="rId5" sheetId="3"/>
     <sheet name="Minutos" r:id="rId6" sheetId="4"/>
     <sheet name="Trenes" r:id="rId7" sheetId="5"/>
   </sheets>

--- a/OfertaPDFDeActivacion&PlantillaCM.xlsx
+++ b/OfertaPDFDeActivacion&PlantillaCM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>DCDIS</t>
   </si>
@@ -99,154 +99,151 @@
     <t>All Trenes From CM-Plantilla...</t>
   </si>
   <si>
+    <t>DVBDI</t>
+  </si>
+  <si>
+    <t>DVBMS</t>
+  </si>
+  <si>
+    <t>DICR1</t>
+  </si>
+  <si>
+    <t>DICRR</t>
+  </si>
+  <si>
+    <t>DCREB</t>
+  </si>
+  <si>
+    <t>DCREE</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DDCRW</t>
+  </si>
+  <si>
+    <t>DDECB</t>
+  </si>
+  <si>
+    <t>DDCRM</t>
+  </si>
+  <si>
+    <t>DDZRM</t>
+  </si>
+  <si>
+    <t>DDTRM</t>
+  </si>
+  <si>
+    <t>DRZMU</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>DVPCF</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DTRUC</t>
+  </si>
+  <si>
+    <t>DTRUT</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DVMTA</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DVSME</t>
+  </si>
+  <si>
+    <t>DVLIM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>DVRMG</t>
+  </si>
+  <si>
+    <t>DRML1</t>
+  </si>
+  <si>
+    <t>DRML2</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DINZ1</t>
+  </si>
+  <si>
+    <t>DINZ2</t>
+  </si>
+  <si>
+    <t>DINZ3</t>
+  </si>
+  <si>
+    <t>DINZ4</t>
+  </si>
+  <si>
+    <t>DINZ5</t>
+  </si>
+  <si>
+    <t>DVCAR</t>
+  </si>
+  <si>
     <t>DPIDC</t>
-  </si>
-  <si>
-    <t>Trenes del Fichero Infinity Business</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
-    <t>DVBDI</t>
-  </si>
-  <si>
-    <t>DVBMS</t>
-  </si>
-  <si>
-    <t>DICR1</t>
-  </si>
-  <si>
-    <t>DICRR</t>
-  </si>
-  <si>
-    <t>DCREB</t>
-  </si>
-  <si>
-    <t>DCREE</t>
-  </si>
-  <si>
-    <t>DCRMB</t>
-  </si>
-  <si>
-    <t>DCRME</t>
-  </si>
-  <si>
-    <t>DDCRW</t>
-  </si>
-  <si>
-    <t>DDECB</t>
-  </si>
-  <si>
-    <t>DDCRM</t>
-  </si>
-  <si>
-    <t>DDZRM</t>
-  </si>
-  <si>
-    <t>DDTRM</t>
-  </si>
-  <si>
-    <t>DRZMU</t>
-  </si>
-  <si>
-    <t>DVPOA</t>
-  </si>
-  <si>
-    <t>DVPOM</t>
-  </si>
-  <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVSOM</t>
-  </si>
-  <si>
-    <t>DVPCF</t>
-  </si>
-  <si>
-    <t>DTRUC</t>
-  </si>
-  <si>
-    <t>DTRUT</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DVMTA</t>
-  </si>
-  <si>
-    <t>DESIM</t>
-  </si>
-  <si>
-    <t>DVSME</t>
-  </si>
-  <si>
-    <t>DVLIM</t>
-  </si>
-  <si>
-    <t>DFAXC</t>
-  </si>
-  <si>
-    <t>DVRMG</t>
-  </si>
-  <si>
-    <t>DRML1</t>
-  </si>
-  <si>
-    <t>DRML2</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
-  </si>
-  <si>
-    <t>DVRRE</t>
-  </si>
-  <si>
-    <t>DINZ1</t>
-  </si>
-  <si>
-    <t>DINZ2</t>
-  </si>
-  <si>
-    <t>DINZ3</t>
-  </si>
-  <si>
-    <t>DINZ4</t>
-  </si>
-  <si>
-    <t>DINZ5</t>
-  </si>
-  <si>
-    <t>DVCAR</t>
   </si>
   <si>
     <t>MTCOU</t>
@@ -419,15 +416,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>19200.0</v>
@@ -435,30 +432,30 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -474,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -516,10 +513,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
@@ -660,58 +657,58 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -739,24 +736,18 @@
       <c r="B2" t="n" s="0">
         <v>100.0</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>28</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>100.0</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>100.0</v>
@@ -764,7 +755,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>100.0</v>
@@ -772,7 +763,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>100.0</v>
@@ -780,7 +771,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>100.0</v>
@@ -788,7 +779,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>100.0</v>
@@ -796,7 +787,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>100.0</v>
@@ -804,7 +795,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>100.0</v>
@@ -812,7 +803,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>100.0</v>
@@ -820,7 +811,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>100.0</v>
@@ -828,7 +819,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>100.0</v>
@@ -836,7 +827,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>100.0</v>
@@ -844,7 +835,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>100.0</v>
@@ -852,7 +843,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>100.0</v>
@@ -860,7 +851,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>100.0</v>
@@ -868,7 +859,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>100.0</v>
@@ -876,7 +867,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>100.0</v>
@@ -884,7 +875,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>100.0</v>
@@ -892,7 +883,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>100.0</v>
@@ -900,7 +891,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>100.0</v>
@@ -908,7 +899,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>100.0</v>
@@ -916,7 +907,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>100.0</v>
@@ -924,7 +915,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>100.0</v>
@@ -932,7 +923,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>100.0</v>
@@ -940,7 +931,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>100.0</v>
@@ -948,7 +939,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>100.0</v>
@@ -956,7 +947,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>100.0</v>
@@ -964,7 +955,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>100.0</v>
@@ -972,7 +963,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>100.0</v>
@@ -980,7 +971,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>100.0</v>
@@ -988,7 +979,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>100.0</v>
@@ -996,7 +987,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>100.0</v>
@@ -1004,7 +995,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>100.0</v>
@@ -1012,7 +1003,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>100.0</v>
@@ -1020,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>100.0</v>
@@ -1028,7 +1019,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>100.0</v>
@@ -1036,7 +1027,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>100.0</v>
@@ -1044,7 +1035,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>100.0</v>
@@ -1052,7 +1043,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>100.0</v>
@@ -1060,7 +1051,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>100.0</v>
@@ -1068,7 +1059,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>100.0</v>
@@ -1076,7 +1067,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>100.0</v>
@@ -1084,7 +1075,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>100.0</v>
@@ -1092,7 +1083,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>100.0</v>
@@ -1100,7 +1091,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>100.0</v>
@@ -1108,7 +1099,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>100.0</v>
@@ -1116,7 +1107,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>100.0</v>
@@ -1124,7 +1115,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>100.0</v>
@@ -1132,7 +1123,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>100.0</v>
@@ -1140,43 +1131,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="C52" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>3</v>
